--- a/devlog/自动贴标/数量接口.xlsx
+++ b/devlog/自动贴标/数量接口.xlsx
@@ -8,8 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="表" sheetId="1" r:id="rId1"/>
-    <sheet name="数据流程" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="盘点数据流程" sheetId="5" r:id="rId2"/>
+    <sheet name="发货数据流程" sheetId="3" r:id="rId3"/>
+    <sheet name="需求" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="155">
   <si>
     <t>规格</t>
   </si>
@@ -59,508 +60,574 @@
     <t>客户条码3</t>
   </si>
   <si>
+    <t>FInvCode</t>
+  </si>
+  <si>
+    <t>FCltBarCode1</t>
+  </si>
+  <si>
+    <t>FCltBarCode2</t>
+  </si>
+  <si>
+    <t>FCltBarCode3</t>
+  </si>
+  <si>
+    <t>FCltInvCode</t>
+  </si>
+  <si>
+    <t>FMinPgkQty</t>
+  </si>
+  <si>
+    <t>GUID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每盘数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总件数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴标位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始序列号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、客户将对应数据存放入中间DB，设备从中间DB获取数据并打印标签</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、客户提供的接口数据中需包含打印标签所需的信息需要包含以下几类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b、标签模板的名称，文件需要在生产前复制到设备工控机的指定文件夹，模板由设备方指导用户做成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c、控制字段，含是否贴标和贴标位置信息，贴标位置固定为上下左右，具体字符可以为UP/DOWN/LEFT/RIGHT等，双方约定即可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a、需要打印到标签上的数据（含盘标、盒标和箱标），包含开始序列号，生成标签时，自动递增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、贴标完成后，设备软件需要更新（或生成）设备贴标实绩，以便于客户接口更新客户系统中的数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售/盘点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每盘数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每盒数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每箱数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总盒数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总盘数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单信息/TOrderM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数理版本号/用于数量同步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量更新数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户记录数量同步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMiddlePkgQty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLargePkgQty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FVersion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUpdateDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FNote</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTotalPlatQty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTotalMiddlePkgQty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTotalLargePkgQty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOrderType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制字段/TOrderDL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户标签模板对应表/TLabelTemplate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FClientID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FClientName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小标签模版名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盒标模版名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大箱模版名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMinPkgQty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMinPkgTemplate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMiddlePkgTemplate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLargePkgTemplate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单物料信息/TOrderDL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPartno</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总盒数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTotalMiddlePkgQty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模版文件名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存货编号（物料编号）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封装</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FBrand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后缀说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRsSurfix</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUnit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户简称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FNickName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于客户查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下各个表在你们系统创建数量我们会发给你们</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数理版本号/用于数量同步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量更新数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FClientOrderNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统订单号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOrderID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于主从表关联</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FInvTypeName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存货编号（物料编号）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封装</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后缀说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每盘数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每盒数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每箱数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTemplateID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本ID(主键）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOrderDLID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从表主键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只扫不贴标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FScanOnly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 代表不打印贴标 0 代表贴标并验证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLabelLocation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FScannedQty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成贴标盘数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FVerifiedQty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成贴标并验证数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FStartSequenceNum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下绿色字段代表不会在单据打印机的时候上传， 我们会同步到基础信息表， 你们自己进行关联</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维一（GUID)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户标签模板对应表 由你们系统维护，如果发过来的订单没有模版希望能支持手动选择模版(测试时比较有用)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPartNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴标系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步基础数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉取贴标系统模版数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成订单订时选择对应的模版</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     客户数量，物料数量，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步完成数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FisFinished</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（客户基础信息）/TClient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义标签模版数据(客户没有模版时用公共模版)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货单贴标签</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打
+印
+并
+贴
+标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户选择发货单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统自动完成基础信息（材料规格，客户名）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据进度更新（已贴，并验证的数量）FVerifiedQty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成每盒打印一个盒标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成每箱打印一个箱标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">更新TOrderM.FisFinished
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新业务系统数量？ 方便待定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集盘点数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送发货单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送盘点单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户选择盘点单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统自动完成基础信息（材料规格）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据进度更新（机器扫描数量）FScannedQty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>FHsBarCode</t>
-  </si>
-  <si>
-    <t>FInvCode</t>
-  </si>
-  <si>
-    <t>FCltBarCode1</t>
-  </si>
-  <si>
-    <t>FCltBarCode2</t>
-  </si>
-  <si>
-    <t>FCltBarCode3</t>
-  </si>
-  <si>
-    <t>FCltInvCode</t>
-  </si>
-  <si>
-    <t>FMinPgkQty</t>
-  </si>
-  <si>
-    <t>GUID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每盘数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总件数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>批次号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴标位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始序列号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口需求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、客户将对应数据存放入中间DB，设备从中间DB获取数据并打印标签</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、客户提供的接口数据中需包含打印标签所需的信息需要包含以下几类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b、标签模板的名称，文件需要在生产前复制到设备工控机的指定文件夹，模板由设备方指导用户做成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c、控制字段，含是否贴标和贴标位置信息，贴标位置固定为上下左右，具体字符可以为UP/DOWN/LEFT/RIGHT等，双方约定即可</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a、需要打印到标签上的数据（含盘标、盒标和箱标），包含开始序列号，生成标签时，自动递增</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、贴标完成后，设备软件需要更新（或生成）设备贴标实绩，以便于客户接口更新客户系统中的数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售/盘点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每盘数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每盒数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每箱数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总盒数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总盘数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单信息/TOrderM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数理版本号/用于数量同步</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量更新数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户记录数量同步</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FMiddlePkgQty</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLargePkgQty</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FVersion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUpdateDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FNote</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTotalPlatQty</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTotalMiddlePkgQty</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTotalLargePkgQty</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOrderType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制字段/TOrderDL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户标签模板对应表/TLabelTemplate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FClientID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FClientName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小标签模版名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>盒标模版名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大箱模版名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FMinPkgQty</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FMinPkgTemplate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FMiddlePkgTemplate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLargePkgTemplate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TInvMapping/条码对应表(物业基本信息)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单物料信息/TOrderDL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FPartno</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总盒数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTotalMiddlePkgQty</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模版文件名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>存货编号（物料编号）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>封装</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FBrand</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FPack</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>后缀说明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRsSurfix</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUnit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物料分类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户简称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FNickName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于客户查询</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>以下各个表在你们系统创建数量我们会发给你们</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数理版本号/用于数量同步</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量更新数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FClientOrderNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统订单号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOrderID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于主从表关联</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FInvTypeName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>存货编号（物料编号）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>封装</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>后缀说明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物料分类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每盘数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每盒数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每箱数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTemplateID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本ID(主键）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOrderDLID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>从表主键</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>只扫不贴标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FScanOnly</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 代表不打印贴标 0 代表贴标并验证</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLabelLocation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FScannedQty</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成贴标盘数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FVerifiedQty</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成贴标并验证数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫描数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FStartSequenceNum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>以下绿色字段代表不会在单据打印机的时候上传， 我们会同步到基础信息表， 你们自己进行关联</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维一（GUID)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户标签模板对应表 由你们系统维护，如果发过来的订单没有模版希望能支持手动选择模版(测试时比较有用)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FPartNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务系统</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴标系统</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步基础数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉取贴标系统模版数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成订单订时选择对应的模版</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义标签模版数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     客户数量，物料数量，</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送订单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户选择对应的订单进行打印，贴标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步完成数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FisFinished</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（客户基础信息）/TClient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当扫描的条码FHsBarCode 找不到对应TInvMapping.FinvCode 新增记录到TOrderDL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描条码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TInvMapping/条码对应表(物料基本信息)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -568,7 +635,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,6 +716,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -770,7 +844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -850,6 +924,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1123,7 +1209,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1133,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1162,7 +1248,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
@@ -1176,78 +1262,78 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>62</v>
-      </c>
       <c r="F2" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="L2" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="J3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="L3" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:20" s="31" customFormat="1" ht="27">
       <c r="C4" s="30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
       <c r="F4" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I4" s="30"/>
       <c r="L4" s="30"/>
@@ -1275,7 +1361,7 @@
     </row>
     <row r="6" spans="1:20" s="15" customFormat="1">
       <c r="A6" s="40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
@@ -1340,7 +1426,7 @@
     </row>
     <row r="10" spans="1:20">
       <c r="B10" s="40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
@@ -1349,7 +1435,7 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="41" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
@@ -1366,7 +1452,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="43" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="B13" s="44"/>
     </row>
@@ -1413,7 +1499,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="10"/>
@@ -1421,92 +1507,92 @@
     </row>
     <row r="16" spans="1:20" s="34" customFormat="1">
       <c r="A16" s="32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D16" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="G16" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="H16" s="33" t="s">
         <v>97</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>99</v>
       </c>
       <c r="I16" s="33"/>
       <c r="J16" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="L16" s="33" t="s">
-        <v>102</v>
-      </c>
       <c r="M16" s="33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N16" s="33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O16" s="33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="H17" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K17" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="L17" s="21" t="s">
+      <c r="M17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="O17" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1538,7 +1624,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="47" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B21" s="47"/>
       <c r="C21" s="47"/>
@@ -1549,43 +1635,43 @@
     </row>
     <row r="22" spans="1:16" s="19" customFormat="1">
       <c r="A22" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D22" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="18" t="s">
-        <v>41</v>
-      </c>
       <c r="F22" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F23" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1593,7 +1679,7 @@
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1611,7 +1697,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="46"/>
       <c r="C27" s="46"/>
@@ -1620,105 +1706,105 @@
     </row>
     <row r="28" spans="1:16" s="23" customFormat="1">
       <c r="A28" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" s="23" t="s">
         <v>1</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K28" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L28" s="23" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="M28" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="N28" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="N28" s="23" t="s">
-        <v>41</v>
-      </c>
       <c r="O28" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="2" customFormat="1">
       <c r="A29" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G29" s="8" t="s">
+      <c r="H29" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="J29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="L29" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="M29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N29" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="O29" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="2" customFormat="1">
       <c r="B30" s="36"/>
       <c r="C30" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1738,7 +1824,7 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B33" s="42"/>
       <c r="C33" s="42"/>
@@ -1754,10 +1840,10 @@
     </row>
     <row r="34" spans="1:20" s="23" customFormat="1">
       <c r="A34" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>2</v>
@@ -1775,103 +1861,103 @@
         <v>3</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I34" s="23" t="s">
         <v>0</v>
       </c>
       <c r="J34" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K34" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="L34" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="M34" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="L34" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="M34" s="27" t="s">
-        <v>75</v>
-      </c>
       <c r="N34" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="O34" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="O34" s="27" t="s">
+      <c r="P34" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="P34" s="27" t="s">
-        <v>82</v>
-      </c>
       <c r="Q34" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="R34" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="R34" s="27" t="s">
+      <c r="S34" s="27" t="s">
         <v>35</v>
-      </c>
-      <c r="S34" s="27" t="s">
-        <v>36</v>
       </c>
       <c r="T34" s="24"/>
     </row>
     <row r="35" spans="1:20" s="2" customFormat="1">
       <c r="A35" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="I35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="K35" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M35" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N35" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="N35" s="16" t="s">
+      <c r="O35" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="O35" s="16" t="s">
-        <v>81</v>
-      </c>
       <c r="P35" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q35" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R35" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="S35" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="S35" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="T35" s="21"/>
     </row>
     <row r="39" spans="1:20" s="2" customFormat="1">
       <c r="A39" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39" s="38"/>
       <c r="C39" s="38"/>
@@ -1882,74 +1968,74 @@
     </row>
     <row r="40" spans="1:20" s="23" customFormat="1">
       <c r="A40" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F40" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="35" t="s">
-        <v>24</v>
-      </c>
       <c r="J40" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K40" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="L40" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:20" s="21" customFormat="1">
       <c r="A41" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E41" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="F41" s="16" t="s">
-        <v>111</v>
-      </c>
       <c r="G41" s="35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J41" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K41" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="K41" s="24" t="s">
-        <v>46</v>
-      </c>
       <c r="L41" s="36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:20">
       <c r="B42" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -1975,67 +2061,91 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C10"/>
+  <dimension ref="B1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="28.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3">
-      <c r="C2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
+    <row r="1" spans="2:4">
+      <c r="B1" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="48"/>
+    </row>
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="C5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="49"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="C6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="49"/>
+    </row>
+    <row r="7" spans="2:4" s="31" customFormat="1" ht="45" customHeight="1">
+      <c r="C7" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="49"/>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="D8" s="49"/>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="D9" s="49"/>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="D10" s="49"/>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="C11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="51"/>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
-      <c r="B6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="C9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" t="s">
-        <v>135</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D4:D10"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2043,47 +2153,174 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="48"/>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="C3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="49"/>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="49"/>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="49"/>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="49"/>
+    </row>
+    <row r="16" spans="2:4" s="31" customFormat="1" ht="31.5" customHeight="1">
+      <c r="C16" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="49"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="D17" s="49"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="D18" s="49"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="C19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="51"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D11:D18"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
